--- a/data/FOREX_4Q.xlsx
+++ b/data/FOREX_4Q.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="623">
   <si>
     <t xml:space="preserve"> Monetary and Financial Statistics by Indicator</t>
   </si>
@@ -392,220 +392,616 @@
     <t>Units</t>
   </si>
   <si>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Cabo Verde</t>
+    <t>Cambodia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Central African Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>China, P.R.: Hong Kong</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>China, P.R.: Macao</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>China, P.R.: Mainland</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Comoros, Union of the</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Congo, Dem. Rep. of the</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Congo, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Croatia, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Curaçao and Sint Maarten</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Curaçao, Kingdom of the Netherlands</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Czech Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Dominican Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Egypt, Arab Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Eritrea, The State of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Eswatini, Kingdom of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Ethiopia, The Federal Dem. Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Cambodia</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Euro Area</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Cameroon</t>
+    <t>Faroe Islands</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Canada</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Fiji, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Cayman Islands</t>
+    <t>French Polynesia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Central African Rep.</t>
+    <t>Gabon</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Chad</t>
+    <t>Gambia, The</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Chile</t>
+    <t>Georgia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>China, P.R.: Hong Kong</t>
+    <t>Ghana</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>China, P.R.: Macao</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>China, P.R.: Mainland</t>
+    <t>Greenland</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Colombia</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Grenada</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Comoros, Union of the</t>
+    <t>Guatemala</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Congo, Dem. Rep. of the</t>
+    <t>Guernsey</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Congo, Rep. of</t>
+    <t>Guinea</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Costa Rica</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Côte d'Ivoire</t>
+    <t>Guyana</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Croatia, Rep. of</t>
+    <t>Haiti</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Curaçao and Sint Maarten</t>
+    <t>Honduras</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Curaçao, Kingdom of the Netherlands</t>
+    <t>Hungary</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Czech Rep.</t>
+    <t>Iceland</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Denmark</t>
+    <t>India</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Djibouti</t>
+    <t>Indonesia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Dominica</t>
+    <t>Iran, Islamic Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Dominican Rep.</t>
+    <t>Iraq</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Ecuador</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Egypt, Arab Rep. of</t>
+    <t>Israel</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>El Salvador</t>
+    <t>Jamaica</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Equatorial Guinea, Rep. of</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Japan</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Eritrea, The State of</t>
+    <t>Jersey</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Eswatini, Kingdom of</t>
+    <t>Jordan</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Ethiopia, The Federal Dem. Rep. of</t>
+    <t>Kazakhstan, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Korea, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kosovo, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kyrgyz Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Lao People's Dem. Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Lesotho, Kingdom of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
     <t>...</t>
   </si>
   <si>
-    <t>Euro Area</t>
+    <t>Libya</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Faroe Islands</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
   </si>
   <si>
     <t>Units</t>
@@ -665,66 +1061,312 @@
     <t>...</t>
   </si>
   <si>
-    <t>Fiji, Rep. of</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Madagascar, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>French Polynesia</t>
+    <t>Malawi</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Gabon</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Gambia, The</t>
+    <t>Maldives</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Mauritania, Islamic Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
     <t>...</t>
   </si>
   <si>
-    <t>Georgia</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Ghana</t>
+    <t>Mexico</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Micronesia, Federated States of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Moldova, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Mozambique, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Gibraltar</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Namibia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Greenland</t>
+    <t>Nauru, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>North Macedonia, Republic of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Palau, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Poland, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>San Marino, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>São Tomé and Príncipe, Dem. Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -737,9 +1379,63 @@
     <t>...</t>
   </si>
   <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Serbia, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Sint Maarten, Kingdom of the Netherlands</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -776,30 +1472,66 @@
     <t>...</t>
   </si>
   <si>
-    <t>Grenada</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>South Africa</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guatemala</t>
+    <t>South Sudan, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guernsey</t>
+    <t>Sri Lanka</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guinea</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>St. Kitts and Nevis</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>St. Lucia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>St. Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -809,1060 +1541,265 @@
     <t>...</t>
   </si>
   <si>
-    <t>Guinea-Bissau</t>
+    <t>Suriname</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guyana</t>
+    <t>Sweden</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Haiti</t>
+    <t>Switzerland</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Syrian Arab Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
     <t>...</t>
   </si>
   <si>
-    <t>Honduras</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Taiwan Province of China</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Hungary</t>
+    <t>Tajikistan, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Iceland</t>
+    <t>Tanzania, United Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>India</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Thailand</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Indonesia</t>
+    <t>Timor-Leste, Dem. Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Iran, Islamic Rep. of</t>
+    <t>Togo</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Iraq</t>
+    <t>Tonga</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Isle of Man</t>
+    <t>Uganda</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Israel</t>
+    <t>Ukraine</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Jamaica</t>
+    <t>United Arab Emirates</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Uzbekistan, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>Venezuela, Rep. Bolivariana de</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Jersey</t>
+    <t>Yemen, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Jordan</t>
+    <t>Zambia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Kazakhstan, Rep. of</t>
+    <t>Zimbabwe</t>
   </si>
   <si>
     <t>Units</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Korea, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Kosovo, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Kyrgyz Rep.</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Lao People's Dem. Rep.</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Lesotho, Kingdom of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Madagascar, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mauritania, Islamic Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Micronesia, Federated States of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Moldova, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mozambique, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nauru, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>New Caledonia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>North Macedonia, Republic of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Palau, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Poland, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>San Marino, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>São Tomé and Príncipe, Dem. Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Serbia, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sint Maarten, Kingdom of the Netherlands</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>South Sudan, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>St. Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>St. Lucia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>St. Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Syrian Arab Rep.</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Taiwan Province of China</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Tajikistan, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Tanzania, United Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Timor-Leste, Dem. Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Uzbekistan, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Venezuela, Rep. Bolivariana de</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Yemen, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
   </si>
   <si>
     <t>...</t>
@@ -5965,17 +5902,17 @@
       <c r="AI36" s="22">
         <v>2820.4263233174001</v>
       </c>
-      <c r="AJ36" s="22" t="s">
-        <v>126</v>
+      <c r="AJ36" s="22">
+        <v>2807.5043486510999</v>
       </c>
     </row>
     <row r="37" ht="14.250000" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="17" t="s">
         <v>127</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>128</v>
       </c>
       <c r="D37" s="18" t="str">
         <v/>
@@ -6074,16 +6011,16 @@
         <v>132.96740339635599</v>
       </c>
       <c r="AJ37" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" ht="14.250000" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="17" t="s">
         <v>130</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>131</v>
       </c>
       <c r="D38" s="18" t="str">
         <v/>
@@ -6188,10 +6125,10 @@
     <row r="39" ht="14.250000" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="17" t="s">
         <v>132</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>133</v>
       </c>
       <c r="D39" s="18" t="str">
         <v/>
@@ -6296,10 +6233,10 @@
     <row r="40" ht="14.250000" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="17" t="s">
         <v>134</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>135</v>
       </c>
       <c r="D40" s="18" t="str">
         <v/>
@@ -6404,10 +6341,10 @@
     <row r="41" ht="14.250000" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="17" t="s">
         <v>136</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>137</v>
       </c>
       <c r="D41" s="18" t="str">
         <v/>
@@ -6512,10 +6449,10 @@
     <row r="42" ht="14.250000" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42" s="17" t="s">
         <v>138</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>139</v>
       </c>
       <c r="D42" s="18" t="str">
         <v/>
@@ -6620,10 +6557,10 @@
     <row r="43" ht="14.250000" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" s="17" t="s">
         <v>140</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>141</v>
       </c>
       <c r="D43" s="18" t="str">
         <v/>
@@ -6728,10 +6665,10 @@
     <row r="44" ht="14.250000" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" s="17" t="s">
         <v>142</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>143</v>
       </c>
       <c r="D44" s="18" t="str">
         <v/>
@@ -6836,10 +6773,10 @@
     <row r="45" ht="14.250000" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" s="17" t="s">
         <v>144</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>145</v>
       </c>
       <c r="D45" s="18" t="str">
         <v/>
@@ -6944,10 +6881,10 @@
     <row r="46" ht="14.250000" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="17" t="s">
         <v>146</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>147</v>
       </c>
       <c r="D46" s="18" t="str">
         <v/>
@@ -7052,10 +6989,10 @@
     <row r="47" ht="14.250000" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" s="17" t="s">
         <v>148</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>149</v>
       </c>
       <c r="D47" s="18" t="str">
         <v/>
@@ -7160,10 +7097,10 @@
     <row r="48" ht="14.250000" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" s="17" t="s">
         <v>150</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>151</v>
       </c>
       <c r="D48" s="18" t="str">
         <v/>
@@ -7268,10 +7205,10 @@
     <row r="49" ht="14.250000" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="17" t="s">
         <v>152</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>153</v>
       </c>
       <c r="D49" s="18" t="str">
         <v/>
@@ -7376,10 +7313,10 @@
     <row r="50" ht="14.250000" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" s="17" t="s">
         <v>154</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>155</v>
       </c>
       <c r="D50" s="18" t="str">
         <v/>
@@ -7484,10 +7421,10 @@
     <row r="51" ht="14.250000" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" s="17" t="s">
         <v>156</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>157</v>
       </c>
       <c r="D51" s="18" t="str">
         <v/>
@@ -7592,10 +7529,10 @@
     <row r="52" ht="14.250000" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C52" s="17" t="s">
         <v>158</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>159</v>
       </c>
       <c r="D52" s="18" t="str">
         <v/>
@@ -7700,10 +7637,10 @@
     <row r="53" ht="14.250000" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C53" s="17" t="s">
         <v>160</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>161</v>
       </c>
       <c r="D53" s="18" t="str">
         <v/>
@@ -7808,10 +7745,10 @@
     <row r="54" ht="14.250000" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" s="17" t="s">
         <v>162</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="D54" s="18" t="str">
         <v/>
@@ -7916,10 +7853,10 @@
     <row r="55" ht="14.250000" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" s="17" t="s">
         <v>164</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>165</v>
       </c>
       <c r="D55" s="18" t="str">
         <v/>
@@ -8024,10 +7961,10 @@
     <row r="56" ht="24.000000" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C56" s="17" t="s">
         <v>166</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>167</v>
       </c>
       <c r="D56" s="18" t="str">
         <v/>
@@ -8132,10 +8069,10 @@
     <row r="57" ht="14.250000" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57" s="17" t="s">
         <v>168</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>169</v>
       </c>
       <c r="D57" s="18" t="str">
         <v/>
@@ -8240,10 +8177,10 @@
     <row r="58" ht="14.250000" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" s="17" t="s">
         <v>170</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>171</v>
       </c>
       <c r="D58" s="18" t="str">
         <v/>
@@ -8348,10 +8285,10 @@
     <row r="59" ht="14.250000" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C59" s="17" t="s">
         <v>172</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>173</v>
       </c>
       <c r="D59" s="18" t="str">
         <v/>
@@ -8456,10 +8393,10 @@
     <row r="60" ht="14.250000" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C60" s="17" t="s">
         <v>174</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>175</v>
       </c>
       <c r="D60" s="18" t="str">
         <v/>
@@ -8564,10 +8501,10 @@
     <row r="61" ht="14.250000" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61" s="17" t="s">
         <v>176</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>177</v>
       </c>
       <c r="D61" s="18" t="str">
         <v/>
@@ -8672,10 +8609,10 @@
     <row r="62" ht="14.250000" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C62" s="17" t="s">
         <v>178</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>179</v>
       </c>
       <c r="D62" s="18" t="str">
         <v/>
@@ -8780,10 +8717,10 @@
     <row r="63" ht="14.250000" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C63" s="17" t="s">
         <v>180</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>181</v>
       </c>
       <c r="D63" s="18" t="str">
         <v/>
@@ -8888,10 +8825,10 @@
     <row r="64" ht="14.250000" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C64" s="17" t="s">
         <v>182</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>183</v>
       </c>
       <c r="D64" s="18" t="str">
         <v/>
@@ -8996,10 +8933,10 @@
     <row r="65" ht="14.250000" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C65" s="17" t="s">
         <v>184</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>185</v>
       </c>
       <c r="D65" s="18" t="str">
         <v/>
@@ -9104,10 +9041,10 @@
     <row r="66" ht="14.250000" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C66" s="17" t="s">
         <v>186</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>187</v>
       </c>
       <c r="D66" s="18" t="str">
         <v/>
@@ -9212,10 +9149,10 @@
     <row r="67" ht="14.250000" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C67" s="17" t="s">
         <v>188</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>189</v>
       </c>
       <c r="D67" s="18" t="str">
         <v/>
@@ -9320,10 +9257,10 @@
     <row r="68" ht="24.000000" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C68" s="17" t="s">
         <v>190</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>191</v>
       </c>
       <c r="D68" s="18" t="str">
         <v/>
@@ -9416,94 +9353,94 @@
         <v>57.314333532902801</v>
       </c>
       <c r="AH68" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI68" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="AI68" s="22" t="s">
+      <c r="AJ68" s="22" t="s">
         <v>193</v>
-      </c>
-      <c r="AJ68" s="22" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="69" ht="14.250000" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C69" s="17" t="s">
         <v>195</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>196</v>
       </c>
       <c r="D69" s="18" t="str">
         <v/>
       </c>
       <c r="E69" s="19">
-        <v>1.1250534145833799</v>
+        <v>1.1250534145834299</v>
       </c>
       <c r="F69" s="20">
-        <v>1.1272331312814701</v>
+        <v>1.1272331312814401</v>
       </c>
       <c r="G69" s="20">
-        <v>1.1482825429093499</v>
+        <v>1.14828254290934</v>
       </c>
       <c r="H69" s="20">
         <v>1.1761706530197</v>
       </c>
       <c r="I69" s="20">
-        <v>1.2484710981511</v>
+        <v>1.2484710981510601</v>
       </c>
       <c r="J69" s="20">
-        <v>1.26455611223466</v>
+        <v>1.26455611223471</v>
       </c>
       <c r="K69" s="20">
         <v>1.2607773124970201</v>
       </c>
       <c r="L69" s="20">
-        <v>1.2702990771931</v>
+        <v>1.27029907719306</v>
       </c>
       <c r="M69" s="20">
-        <v>1.26134430941901</v>
+        <v>1.2613443094190699</v>
       </c>
       <c r="N69" s="20">
-        <v>1.24796643890948</v>
+        <v>1.24796643890946</v>
       </c>
       <c r="O69" s="20">
-        <v>1.2503345027592301</v>
+        <v>1.2503345027592201</v>
       </c>
       <c r="P69" s="20">
         <v>1.2649662193956199</v>
       </c>
       <c r="Q69" s="20">
-        <v>1.27147983188562</v>
+        <v>1.2714798318856499</v>
       </c>
       <c r="R69" s="20">
-        <v>1.24584524655762</v>
+        <v>1.2458452465576</v>
       </c>
       <c r="S69" s="20">
-        <v>1.1995196330351099</v>
+        <v>1.1995196330350999</v>
       </c>
       <c r="T69" s="20">
-        <v>1.1984490671903301</v>
+        <v>1.1984490671903401</v>
       </c>
       <c r="U69" s="20">
-        <v>1.17757079657908</v>
+        <v>1.17757079657907</v>
       </c>
       <c r="V69" s="20">
-        <v>1.1997580001975501</v>
+        <v>1.1997580001975301</v>
       </c>
       <c r="W69" s="20">
-        <v>1.20410644365049</v>
+        <v>1.20410644365054</v>
       </c>
       <c r="X69" s="20">
         <v>1.2150525215557899</v>
       </c>
       <c r="Y69" s="20">
-        <v>1.22600989960188</v>
+        <v>1.22600989960191</v>
       </c>
       <c r="Z69" s="20">
         <v>1.2323513905802801</v>
       </c>
       <c r="AA69" s="20">
-        <v>1.2357988927725301</v>
+        <v>1.2357988927725601</v>
       </c>
       <c r="AB69" s="20">
         <v>1.24227973300327</v>
@@ -9512,34 +9449,34 @@
         <v>1.2457704654141</v>
       </c>
       <c r="AD69" s="20">
-        <v>1.24289795163843</v>
+        <v>1.24289795163844</v>
       </c>
       <c r="AE69" s="20">
-        <v>1.20225350520096</v>
+        <v>1.20225350520097</v>
       </c>
       <c r="AF69" s="20">
-        <v>1.19401234365424</v>
+        <v>1.1940123436542001</v>
       </c>
       <c r="AG69" s="20">
-        <v>1.19242437766479</v>
+        <v>1.19242437766481</v>
       </c>
       <c r="AH69" s="20">
-        <v>1.1899293992512601</v>
+        <v>1.1899293992513</v>
       </c>
       <c r="AI69" s="20">
-        <v>1.20621421223355</v>
+        <v>1.20621421223353</v>
       </c>
       <c r="AJ69" s="20">
-        <v>1.22849890675669</v>
+        <v>1.2284989067566501</v>
       </c>
     </row>
     <row r="70" ht="14.250000" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C70" s="17" t="s">
         <v>197</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>198</v>
       </c>
       <c r="D70" s="18" t="str">
         <v/>
@@ -9587,67 +9524,67 @@
         <v>9.2868669896292193</v>
       </c>
       <c r="S70" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="T70" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="T70" s="22" t="s">
+      <c r="U70" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="U70" s="22" t="s">
+      <c r="V70" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="V70" s="22" t="s">
+      <c r="W70" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="W70" s="22" t="s">
+      <c r="X70" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="X70" s="22" t="s">
+      <c r="Y70" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="Y70" s="22" t="s">
+      <c r="Z70" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="Z70" s="22" t="s">
+      <c r="AA70" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="AA70" s="22" t="s">
+      <c r="AB70" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="AB70" s="22" t="s">
+      <c r="AC70" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="AC70" s="22" t="s">
+      <c r="AD70" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="AD70" s="22" t="s">
+      <c r="AE70" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="AE70" s="22" t="s">
+      <c r="AF70" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="AF70" s="22" t="s">
+      <c r="AG70" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="AG70" s="22" t="s">
+      <c r="AH70" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="AH70" s="22" t="s">
+      <c r="AI70" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="AI70" s="22" t="s">
+      <c r="AJ70" s="22" t="s">
         <v>215</v>
-      </c>
-      <c r="AJ70" s="22" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="71" ht="14.250000" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C71" s="17" t="s">
         <v>217</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>218</v>
       </c>
       <c r="D71" s="18" t="str">
         <v/>
@@ -9752,10 +9689,10 @@
     <row r="72" ht="14.250000" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C72" s="17" t="s">
         <v>219</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>220</v>
       </c>
       <c r="D72" s="18" t="str">
         <v/>
@@ -9860,10 +9797,10 @@
     <row r="73" ht="14.250000" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="C73" s="17" t="s">
         <v>221</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>222</v>
       </c>
       <c r="D73" s="18" t="str">
         <v/>
@@ -9968,10 +9905,10 @@
     <row r="74" ht="14.250000" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C74" s="17" t="s">
         <v>223</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>224</v>
       </c>
       <c r="D74" s="18" t="str">
         <v/>
@@ -10066,20 +10003,20 @@
       <c r="AH74" s="22">
         <v>73.326096841505304</v>
       </c>
-      <c r="AI74" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="AJ74" s="22" t="s">
-        <v>226</v>
+      <c r="AI74" s="22">
+        <v>72.847922113338598</v>
+      </c>
+      <c r="AJ74" s="22">
+        <v>73.433745140575397</v>
       </c>
     </row>
     <row r="75" ht="14.250000" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="16" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D75" s="18" t="str">
         <v/>
@@ -10184,10 +10121,10 @@
     <row r="76" ht="14.250000" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="16" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D76" s="18" t="str">
         <v/>
@@ -10286,16 +10223,16 @@
         <v>8.2791535765560607</v>
       </c>
       <c r="AJ76" s="22" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="77" ht="14.250000" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D77" s="18" t="str">
         <v/>
@@ -10400,10 +10337,10 @@
     <row r="78" ht="14.250000" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D78" s="18" t="str">
         <v/>
@@ -10451,67 +10388,67 @@
         <v>9.2868669896292193</v>
       </c>
       <c r="S78" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="T78" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="U78" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="V78" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="T78" s="22" t="s">
+      <c r="W78" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="U78" s="22" t="s">
+      <c r="X78" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="V78" s="22" t="s">
+      <c r="Y78" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="W78" s="22" t="s">
+      <c r="Z78" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="X78" s="22" t="s">
+      <c r="AA78" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="Y78" s="22" t="s">
+      <c r="AB78" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="Z78" s="22" t="s">
+      <c r="AC78" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="AA78" s="22" t="s">
+      <c r="AD78" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="AB78" s="22" t="s">
+      <c r="AE78" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="AC78" s="22" t="s">
+      <c r="AF78" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="AD78" s="22" t="s">
+      <c r="AG78" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="AE78" s="22" t="s">
+      <c r="AH78" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="AF78" s="22" t="s">
+      <c r="AI78" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="AG78" s="22" t="s">
+      <c r="AJ78" s="22" t="s">
         <v>250</v>
-      </c>
-      <c r="AH78" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="AI78" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="AJ78" s="22" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="79" ht="14.250000" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="16" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D79" s="18" t="str">
         <v/>
@@ -10616,10 +10553,10 @@
     <row r="80" ht="14.250000" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="16" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D80" s="18" t="str">
         <v/>
@@ -10724,10 +10661,10 @@
     <row r="81" ht="14.250000" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="16" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D81" s="18" t="str">
         <v/>
@@ -10832,10 +10769,10 @@
     <row r="82" ht="14.250000" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="16" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D82" s="18" t="str">
         <v/>
@@ -10928,22 +10865,22 @@
         <v>14438.2136760453</v>
       </c>
       <c r="AH82" s="22" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AI82" s="22" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AJ82" s="22" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="83" ht="14.250000" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="16" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D83" s="18" t="str">
         <v/>
@@ -11048,10 +10985,10 @@
     <row r="84" ht="14.250000" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D84" s="18" t="str">
         <v/>
@@ -11156,10 +11093,10 @@
     <row r="85" ht="14.250000" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="16" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D85" s="18" t="str">
         <v/>
@@ -11254,20 +11191,20 @@
       <c r="AH85" s="20">
         <v>125.351888588435</v>
       </c>
-      <c r="AI85" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="AJ85" s="20" t="s">
-        <v>272</v>
+      <c r="AI85" s="20">
+        <v>136.175547884769</v>
+      </c>
+      <c r="AJ85" s="20">
+        <v>139.25171964906599</v>
       </c>
     </row>
     <row r="86" ht="14.250000" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="16" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D86" s="18" t="str">
         <v/>
@@ -11372,10 +11309,10 @@
     <row r="87" ht="14.250000" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="16" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D87" s="18" t="str">
         <v/>
@@ -11480,10 +11417,10 @@
     <row r="88" ht="14.250000" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="16" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D88" s="18" t="str">
         <v/>
@@ -11588,10 +11525,10 @@
     <row r="89" ht="14.250000" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="16" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D89" s="18" t="str">
         <v/>
@@ -11696,10 +11633,10 @@
     <row r="90" ht="14.250000" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="16" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D90" s="18" t="str">
         <v/>
@@ -11804,10 +11741,10 @@
     <row r="91" ht="14.250000" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="16" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D91" s="18" t="str">
         <v/>
@@ -11912,10 +11849,10 @@
     <row r="92" ht="14.250000" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="16" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D92" s="18" t="str">
         <v/>
@@ -12014,16 +11951,16 @@
         <v>2061.73105438624</v>
       </c>
       <c r="AJ92" s="22" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="93" ht="14.250000" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="16" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D93" s="18" t="str">
         <v/>
@@ -12128,10 +12065,10 @@
     <row r="94" ht="14.250000" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="16" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D94" s="18" t="str">
         <v/>
@@ -12236,10 +12173,10 @@
     <row r="95" ht="14.250000" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="16" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D95" s="18" t="str">
         <v/>
@@ -12335,19 +12272,19 @@
         <v>215.71327480265799</v>
       </c>
       <c r="AI95" s="20" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="AJ95" s="20" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="96" ht="14.250000" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="16" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D96" s="18" t="str">
         <v/>
@@ -12452,10 +12389,10 @@
     <row r="97" ht="14.250000" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="16" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D97" s="18" t="str">
         <v/>
@@ -12560,10 +12497,10 @@
     <row r="98" ht="14.250000" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="16" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D98" s="18" t="str">
         <v/>
@@ -12668,10 +12605,10 @@
     <row r="99" ht="14.250000" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="16" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D99" s="18" t="str">
         <v/>
@@ -12776,52 +12713,52 @@
     <row r="100" ht="14.250000" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="16" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D100" s="18" t="str">
         <v/>
       </c>
       <c r="E100" s="21">
-        <v>133.02152660820201</v>
+        <v>133.02198405703101</v>
       </c>
       <c r="F100" s="22">
-        <v>134.84133201309501</v>
+        <v>134.84107222902699</v>
       </c>
       <c r="G100" s="22">
-        <v>134.311547931625</v>
+        <v>134.307014162706</v>
       </c>
       <c r="H100" s="22">
-        <v>132.11722561318501</v>
+        <v>132.11943801273699</v>
       </c>
       <c r="I100" s="22">
-        <v>128.68254025378101</v>
+        <v>128.67988275420899</v>
       </c>
       <c r="J100" s="22">
-        <v>133.95803774021499</v>
+        <v>133.95899297910901</v>
       </c>
       <c r="K100" s="22">
-        <v>144.312221138729</v>
+        <v>144.31293671476601</v>
       </c>
       <c r="L100" s="22">
-        <v>142.44348978792601</v>
+        <v>142.44048843007101</v>
       </c>
       <c r="M100" s="22">
-        <v>141.65463097055701</v>
+        <v>141.65455477594699</v>
       </c>
       <c r="N100" s="22">
-        <v>142.38570644612599</v>
+        <v>142.383721378915</v>
       </c>
       <c r="O100" s="22">
-        <v>141.48214989125299</v>
+        <v>141.48354673325599</v>
       </c>
       <c r="P100" s="22">
-        <v>138.84864153511401</v>
+        <v>138.85038067674299</v>
       </c>
       <c r="Q100" s="22">
-        <v>140.00798340879101</v>
+        <v>140.00559157565499</v>
       </c>
       <c r="R100" s="22">
         <v>141.92102437421801</v>
@@ -12884,10 +12821,10 @@
     <row r="101" ht="14.250000" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="16" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D101" s="18" t="str">
         <v/>
@@ -12992,10 +12929,10 @@
     <row r="102" ht="14.250000" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="16" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D102" s="18" t="str">
         <v/>
@@ -13100,10 +13037,10 @@
     <row r="103" ht="14.250000" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="16" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D103" s="18" t="str">
         <v/>
@@ -13208,10 +13145,10 @@
     <row r="104" ht="14.250000" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="16" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D104" s="18" t="str">
         <v/>
@@ -13316,10 +13253,10 @@
     <row r="105" ht="14.250000" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="16" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D105" s="18" t="str">
         <v/>
@@ -13424,10 +13361,10 @@
     <row r="106" ht="14.250000" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="16" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D106" s="18" t="str">
         <v/>
@@ -13526,16 +13463,16 @@
         <v>13610.8288618394</v>
       </c>
       <c r="AJ106" s="22" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="107" ht="14.250000" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="16" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D107" s="18" t="str">
         <v/>
@@ -13640,10 +13577,10 @@
     <row r="108" ht="14.250000" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="16" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D108" s="18" t="str">
         <v/>
@@ -13730,28 +13667,28 @@
         <v>23.7584646544266</v>
       </c>
       <c r="AF108" s="22">
-        <v>22.354861102560299</v>
+        <v>22.2746340729568</v>
       </c>
       <c r="AG108" s="22">
-        <v>21.488844451585901</v>
+        <v>21.485347844265899</v>
       </c>
       <c r="AH108" s="22">
-        <v>20.2727737747474</v>
+        <v>20.272224174398598</v>
       </c>
       <c r="AI108" s="22">
-        <v>20.817893801569301</v>
+        <v>20.785212064193601</v>
       </c>
       <c r="AJ108" s="22">
-        <v>21.6438225900093</v>
+        <v>21.653338763389701</v>
       </c>
     </row>
     <row r="109" ht="14.250000" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="16" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D109" s="18" t="str">
         <v/>
@@ -13847,19 +13784,19 @@
         <v>246.61726753955099</v>
       </c>
       <c r="AI109" s="20" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="AJ109" s="20" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="110" ht="14.250000" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="16" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D110" s="18" t="str">
         <v/>
@@ -13946,28 +13883,28 @@
         <v>1.9385691115330601</v>
       </c>
       <c r="AF110" s="22" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="AG110" s="22" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="AH110" s="22" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="AI110" s="22" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="AJ110" s="22" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="111" ht="14.250000" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="16" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D111" s="18" t="str">
         <v/>
@@ -13985,97 +13922,97 @@
         <v>4.05837970975485</v>
       </c>
       <c r="I111" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="J111" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="K111" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="L111" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="M111" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="N111" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="J111" s="20" t="s">
+      <c r="O111" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="K111" s="20" t="s">
+      <c r="P111" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="L111" s="20" t="s">
+      <c r="Q111" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="M111" s="20" t="s">
+      <c r="R111" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="N111" s="20" t="s">
+      <c r="S111" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="O111" s="20" t="s">
+      <c r="T111" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="P111" s="20" t="s">
+      <c r="U111" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="Q111" s="20" t="s">
+      <c r="V111" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="R111" s="20" t="s">
+      <c r="W111" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="S111" s="20" t="s">
+      <c r="X111" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="T111" s="20" t="s">
+      <c r="Y111" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="U111" s="20" t="s">
+      <c r="Z111" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="V111" s="20" t="s">
+      <c r="AA111" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="W111" s="20" t="s">
+      <c r="AB111" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="X111" s="20" t="s">
+      <c r="AC111" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="Y111" s="20" t="s">
+      <c r="AD111" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="Z111" s="20" t="s">
+      <c r="AE111" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="AA111" s="20" t="s">
+      <c r="AF111" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="AB111" s="20" t="s">
+      <c r="AG111" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="AC111" s="20" t="s">
+      <c r="AH111" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="AD111" s="20" t="s">
+      <c r="AI111" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="AE111" s="20" t="s">
+      <c r="AJ111" s="20" t="s">
         <v>358</v>
-      </c>
-      <c r="AF111" s="20" t="s">
-        <v>359</v>
-      </c>
-      <c r="AG111" s="20" t="s">
-        <v>360</v>
-      </c>
-      <c r="AH111" s="20" t="s">
-        <v>361</v>
-      </c>
-      <c r="AI111" s="20" t="s">
-        <v>362</v>
-      </c>
-      <c r="AJ111" s="20" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="112" ht="14.250000" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="16" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D112" s="18" t="str">
         <v/>
@@ -14180,10 +14117,10 @@
     <row r="113" ht="14.250000" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="16" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D113" s="18" t="str">
         <v/>
@@ -14282,16 +14219,16 @@
         <v>1163.3141447246001</v>
       </c>
       <c r="AJ113" s="20" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="114" ht="14.250000" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="16" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D114" s="18" t="str">
         <v/>
@@ -14396,10 +14333,10 @@
     <row r="115" ht="14.250000" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="16" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D115" s="18" t="str">
         <v/>
@@ -14504,10 +14441,10 @@
     <row r="116" ht="14.250000" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="16" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D116" s="18" t="str">
         <v/>
@@ -14612,10 +14549,10 @@
     <row r="117" ht="14.250000" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="16" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D117" s="18" t="str">
         <v/>
@@ -14708,22 +14645,22 @@
         <v>51.716039238081002</v>
       </c>
       <c r="AH117" s="20" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AI117" s="20" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AJ117" s="20" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="118" ht="14.250000" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="16" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D118" s="18" t="str">
         <v/>
@@ -14828,10 +14765,10 @@
     <row r="119" ht="14.250000" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="16" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D119" s="18" t="str">
         <v/>
@@ -14936,10 +14873,10 @@
     <row r="120" ht="24.000000" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="16" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D120" s="18" t="str">
         <v/>
@@ -15044,10 +14981,10 @@
     <row r="121" ht="14.250000" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="16" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D121" s="18" t="str">
         <v/>
@@ -15152,10 +15089,10 @@
     <row r="122" ht="14.250000" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="16" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D122" s="18" t="str">
         <v/>
@@ -15250,20 +15187,20 @@
       <c r="AH122" s="22">
         <v>4088.6985006118398</v>
       </c>
-      <c r="AI122" s="22" t="s">
-        <v>390</v>
-      </c>
-      <c r="AJ122" s="22" t="s">
-        <v>391</v>
+      <c r="AI122" s="22">
+        <v>4050.8628444824199</v>
+      </c>
+      <c r="AJ122" s="22">
+        <v>4002.2760034451799</v>
       </c>
     </row>
     <row r="123" ht="14.250000" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="16" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D123" s="18" t="str">
         <v/>
@@ -15368,10 +15305,10 @@
     <row r="124" ht="14.250000" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="16" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D124" s="18" t="str">
         <v/>
@@ -15476,10 +15413,10 @@
     <row r="125" ht="14.250000" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="16" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="D125" s="18" t="str">
         <v/>
@@ -15584,10 +15521,10 @@
     <row r="126" ht="14.250000" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="16" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D126" s="18" t="str">
         <v/>
@@ -15685,17 +15622,17 @@
       <c r="AI126" s="22">
         <v>90.559759209558493</v>
       </c>
-      <c r="AJ126" s="22" t="s">
-        <v>400</v>
+      <c r="AJ126" s="22">
+        <v>89.669669729600997</v>
       </c>
     </row>
     <row r="127" ht="14.250000" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="16" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="D127" s="18" t="str">
         <v/>
@@ -15788,22 +15725,22 @@
         <v>1997.6212100547</v>
       </c>
       <c r="AH127" s="20" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="AI127" s="20" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="AJ127" s="20" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="128" ht="14.250000" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="16" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D128" s="18" t="str">
         <v/>
@@ -15908,10 +15845,10 @@
     <row r="129" ht="14.250000" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="16" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="D129" s="18" t="str">
         <v/>
@@ -16016,10 +15953,10 @@
     <row r="130" ht="14.250000" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="16" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="D130" s="18" t="str">
         <v/>
@@ -16124,10 +16061,10 @@
     <row r="131" ht="14.250000" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="16" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="D131" s="18" t="str">
         <v/>
@@ -16232,10 +16169,10 @@
     <row r="132" ht="14.250000" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="16" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="D132" s="18" t="str">
         <v/>
@@ -16340,10 +16277,10 @@
     <row r="133" ht="14.250000" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="16" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="D133" s="18" t="str">
         <v/>
@@ -16435,23 +16372,23 @@
       <c r="AG133" s="20">
         <v>50.155650584970203</v>
       </c>
-      <c r="AH133" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="AI133" s="20" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ133" s="20" t="s">
-        <v>420</v>
+      <c r="AH133" s="20">
+        <v>50.338722534722699</v>
+      </c>
+      <c r="AI133" s="20">
+        <v>50.132246584480598</v>
+      </c>
+      <c r="AJ133" s="20">
+        <v>49.7776008833752</v>
       </c>
     </row>
     <row r="134" ht="14.250000" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="16" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="D134" s="18" t="str">
         <v/>
@@ -16556,10 +16493,10 @@
     <row r="135" ht="14.250000" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="16" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="D135" s="18" t="str">
         <v/>
@@ -16658,16 +16595,16 @@
         <v>583.96754761133104</v>
       </c>
       <c r="AJ135" s="20" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
     </row>
     <row r="136" ht="14.250000" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="16" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="D136" s="18" t="str">
         <v/>
@@ -16772,10 +16709,10 @@
     <row r="137" ht="14.250000" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="16" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="D137" s="18" t="str">
         <v/>
@@ -16880,10 +16817,10 @@
     <row r="138" ht="14.250000" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="16" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="D138" s="18" t="str">
         <v/>
@@ -16988,10 +16925,10 @@
     <row r="139" ht="14.250000" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="16" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="D139" s="18" t="str">
         <v/>
@@ -17096,10 +17033,10 @@
     <row r="140" ht="14.250000" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="16" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="D140" s="18" t="str">
         <v/>
@@ -17204,10 +17141,10 @@
     <row r="141" ht="14.250000" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="16" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="D141" s="18" t="str">
         <v/>
@@ -17312,10 +17249,10 @@
     <row r="142" ht="14.250000" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="16" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="D142" s="18" t="str">
         <v/>
@@ -17413,17 +17350,17 @@
       <c r="AI142" s="22">
         <v>4.9890648623986502</v>
       </c>
-      <c r="AJ142" s="22" t="s">
-        <v>440</v>
+      <c r="AJ142" s="22">
+        <v>4.9291934843155696</v>
       </c>
     </row>
     <row r="143" ht="14.250000" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="16" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="D143" s="18" t="str">
         <v/>
@@ -17528,10 +17465,10 @@
     <row r="144" ht="14.250000" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="16" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="D144" s="18" t="str">
         <v/>
@@ -17636,10 +17573,10 @@
     <row r="145" ht="14.250000" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="16" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="D145" s="18" t="str">
         <v/>
@@ -17744,10 +17681,10 @@
     <row r="146" ht="14.250000" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="16" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="D146" s="18" t="str">
         <v/>
@@ -17852,10 +17789,10 @@
     <row r="147" ht="14.250000" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="16" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="D147" s="18" t="str">
         <v/>
@@ -17960,10 +17897,10 @@
     <row r="148" ht="14.250000" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="16" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="D148" s="18" t="str">
         <v/>
@@ -18068,10 +18005,10 @@
     <row r="149" ht="14.250000" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="16" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D149" s="18" t="str">
         <v/>
@@ -18176,10 +18113,10 @@
     <row r="150" ht="14.250000" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="16" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="D150" s="18" t="str">
         <v/>
@@ -18284,10 +18221,10 @@
     <row r="151" ht="14.250000" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="16" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="D151" s="18" t="str">
         <v/>
@@ -18392,10 +18329,10 @@
     <row r="152" ht="14.250000" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="16" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="D152" s="18" t="str">
         <v/>
@@ -18500,10 +18437,10 @@
     <row r="153" ht="24.000000" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="16" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="D153" s="18" t="str">
         <v/>
@@ -18593,25 +18530,25 @@
         <v>29.286316797857399</v>
       </c>
       <c r="AG153" s="20" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="AH153" s="20" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="AI153" s="20" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="AJ153" s="20" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
     </row>
     <row r="154" ht="14.250000" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="16" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="D154" s="18" t="str">
         <v/>
@@ -18716,10 +18653,10 @@
     <row r="155" ht="14.250000" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="16" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D155" s="18" t="str">
         <v/>
@@ -18824,10 +18761,10 @@
     <row r="156" ht="14.250000" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="16" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="D156" s="18" t="str">
         <v/>
@@ -18932,10 +18869,10 @@
     <row r="157" ht="14.250000" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="16" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="D157" s="18" t="str">
         <v/>
@@ -19040,10 +18977,10 @@
     <row r="158" ht="14.250000" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="16" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="D158" s="18" t="str">
         <v/>
@@ -19142,16 +19079,16 @@
         <v>14715.6942478818</v>
       </c>
       <c r="AJ158" s="22" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
     </row>
     <row r="159" ht="14.250000" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="16" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="D159" s="18" t="str">
         <v/>
@@ -19256,10 +19193,10 @@
     <row r="160" ht="24.000000" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="16" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="D160" s="18" t="str">
         <v/>
@@ -19364,10 +19301,10 @@
     <row r="161" ht="14.250000" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="16" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="D161" s="18" t="str">
         <v/>
@@ -19459,23 +19396,23 @@
       <c r="AG161" s="20">
         <v>11.5018445201282</v>
       </c>
-      <c r="AH161" s="20" t="s">
-        <v>484</v>
-      </c>
-      <c r="AI161" s="20" t="s">
-        <v>485</v>
-      </c>
-      <c r="AJ161" s="20" t="s">
-        <v>486</v>
+      <c r="AH161" s="20">
+        <v>11.467479945599599</v>
+      </c>
+      <c r="AI161" s="20">
+        <v>11.456136087518001</v>
+      </c>
+      <c r="AJ161" s="20">
+        <v>11.330718251097901</v>
       </c>
     </row>
     <row r="162" ht="14.250000" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="16" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="D162" s="18" t="str">
         <v/>
@@ -19535,55 +19472,55 @@
         <v>33625.194508423803</v>
       </c>
       <c r="W162" s="22" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="X162" s="22" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="Y162" s="22" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="Z162" s="22" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="AA162" s="22" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="AB162" s="22" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="AC162" s="22" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="AD162" s="22" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="AE162" s="22" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="AF162" s="22" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="AG162" s="22" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="AH162" s="22" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="AI162" s="22" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="AJ162" s="22" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
     </row>
     <row r="163" ht="14.250000" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="16" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="D163" s="18" t="str">
         <v/>
@@ -19688,10 +19625,10 @@
     <row r="164" ht="14.250000" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="16" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="D164" s="18" t="str">
         <v/>
@@ -19796,10 +19733,10 @@
     <row r="165" ht="14.250000" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="16" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="D165" s="18" t="str">
         <v/>
@@ -19889,25 +19826,25 @@
         <v>264.17070280802699</v>
       </c>
       <c r="AG165" s="20" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="AH165" s="20" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="AI165" s="20" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="AJ165" s="20" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
     </row>
     <row r="166" ht="14.250000" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="16" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="D166" s="18" t="str">
         <v/>
@@ -20012,10 +19949,10 @@
     <row r="167" ht="14.250000" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="16" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="D167" s="18" t="str">
         <v/>
@@ -20120,10 +20057,10 @@
     <row r="168" ht="14.250000" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="16" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="D168" s="18" t="str">
         <v/>
@@ -20228,10 +20165,10 @@
     <row r="169" ht="14.250000" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="16" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="D169" s="18" t="str">
         <v/>
@@ -20324,22 +20261,22 @@
         <v>280.17364196543099</v>
       </c>
       <c r="AH169" s="20" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="AI169" s="20" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="AJ169" s="20" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
     </row>
     <row r="170" ht="14.250000" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="16" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="D170" s="18" t="str">
         <v/>
@@ -20444,10 +20381,10 @@
     <row r="171" ht="14.250000" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="16" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="D171" s="18" t="str">
         <v/>
@@ -20552,10 +20489,10 @@
     <row r="172" ht="14.250000" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="16" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="D172" s="18" t="str">
         <v/>
@@ -20660,10 +20597,10 @@
     <row r="173" ht="14.250000" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="16" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="D173" s="18" t="str">
         <v/>
@@ -20726,52 +20663,52 @@
         <v>611.21228342347501</v>
       </c>
       <c r="X173" s="20" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="Y173" s="20" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="Z173" s="20" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="AA173" s="20" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="AB173" s="20" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="AC173" s="20" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="AD173" s="20" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="AE173" s="20" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="AF173" s="20" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="AG173" s="20" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="AH173" s="20" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="AI173" s="20" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="AJ173" s="20" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
     </row>
     <row r="174" ht="14.250000" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="16" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="D174" s="18" t="str">
         <v/>
@@ -20876,10 +20813,10 @@
     <row r="175" ht="14.250000" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="16" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="D175" s="18" t="str">
         <v/>
@@ -20984,10 +20921,10 @@
     <row r="176" ht="14.250000" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="16" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="D176" s="18" t="str">
         <v/>
@@ -21077,25 +21014,25 @@
         <v>3272.7550437612799</v>
       </c>
       <c r="AG176" s="22" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="AH176" s="22" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="AI176" s="22" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="AJ176" s="22" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
     </row>
     <row r="177" ht="14.250000" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="16" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="D177" s="18" t="str">
         <v/>
@@ -21200,10 +21137,10 @@
     <row r="178" ht="14.250000" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="16" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="D178" s="18" t="str">
         <v/>
@@ -21308,10 +21245,10 @@
     <row r="179" ht="14.250000" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="16" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="D179" s="18" t="str">
         <v/>
@@ -21416,10 +21353,10 @@
     <row r="180" ht="14.250000" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="16" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="D180" s="18" t="str">
         <v/>
@@ -21517,17 +21454,17 @@
       <c r="AI180" s="22">
         <v>3.2093130487979402</v>
       </c>
-      <c r="AJ180" s="22" t="s">
-        <v>563</v>
+      <c r="AJ180" s="22">
+        <v>3.1702493336861002</v>
       </c>
     </row>
     <row r="181" ht="14.250000" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="16" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="D181" s="18" t="str">
         <v/>
@@ -21632,10 +21569,10 @@
     <row r="182" ht="14.250000" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="16" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="D182" s="18" t="str">
         <v/>
@@ -21740,10 +21677,10 @@
     <row r="183" ht="14.250000" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="16" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="D183" s="18" t="str">
         <v/>
@@ -21842,16 +21779,16 @@
         <v>12.134102468261601</v>
       </c>
       <c r="AJ183" s="20" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="184" ht="14.250000" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="16" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="D184" s="18" t="str">
         <v/>
@@ -21956,10 +21893,10 @@
     <row r="185" ht="14.250000" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="16" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="D185" s="18" t="str">
         <v/>
@@ -22064,10 +22001,10 @@
     <row r="186" ht="14.250000" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="16" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="D186" s="18" t="str">
         <v/>
@@ -22172,10 +22109,10 @@
     <row r="187" ht="14.250000" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="16" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="D187" s="18" t="str">
         <v/>
@@ -22280,10 +22217,10 @@
     <row r="188" ht="14.250000" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="16" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="D188" s="18" t="str">
         <v/>
@@ -22388,10 +22325,10 @@
     <row r="189" ht="14.250000" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="16" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="D189" s="18" t="str">
         <v/>
@@ -22489,17 +22426,17 @@
       <c r="AI189" s="20">
         <v>61.496460760141403</v>
       </c>
-      <c r="AJ189" s="20" t="s">
-        <v>583</v>
+      <c r="AJ189" s="20">
+        <v>61.785862983980799</v>
       </c>
     </row>
     <row r="190" ht="14.250000" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="16" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="D190" s="18" t="str">
         <v/>
@@ -22604,10 +22541,10 @@
     <row r="191" ht="14.250000" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="16" t="s">
-        <v>586</v>
+        <v>569</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>587</v>
+        <v>570</v>
       </c>
       <c r="D191" s="18" t="str">
         <v/>
@@ -22706,16 +22643,16 @@
         <v>157.44989799243899</v>
       </c>
       <c r="AJ191" s="20" t="s">
-        <v>588</v>
+        <v>571</v>
       </c>
     </row>
     <row r="192" ht="14.250000" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="16" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="D192" s="18" t="str">
         <v/>
@@ -22775,55 +22712,55 @@
         <v>102008.149221418</v>
       </c>
       <c r="W192" s="22" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
       <c r="X192" s="22" t="s">
-        <v>592</v>
+        <v>575</v>
       </c>
       <c r="Y192" s="22" t="s">
-        <v>593</v>
+        <v>576</v>
       </c>
       <c r="Z192" s="22" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="AA192" s="22" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="AB192" s="22" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="AC192" s="22" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="AD192" s="22" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="AE192" s="22" t="s">
-        <v>599</v>
+        <v>582</v>
       </c>
       <c r="AF192" s="22" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="AG192" s="22" t="s">
-        <v>601</v>
+        <v>584</v>
       </c>
       <c r="AH192" s="22" t="s">
-        <v>602</v>
+        <v>585</v>
       </c>
       <c r="AI192" s="22" t="s">
-        <v>603</v>
+        <v>586</v>
       </c>
       <c r="AJ192" s="22" t="s">
-        <v>604</v>
+        <v>587</v>
       </c>
     </row>
     <row r="193" ht="14.250000" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="16" t="s">
-        <v>605</v>
+        <v>588</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>606</v>
+        <v>589</v>
       </c>
       <c r="D193" s="18" t="str">
         <v/>
@@ -22921,17 +22858,17 @@
       <c r="AI193" s="20">
         <v>32932.172320060003</v>
       </c>
-      <c r="AJ193" s="20" t="s">
-        <v>607</v>
+      <c r="AJ193" s="20">
+        <v>32526.0957838022</v>
       </c>
     </row>
     <row r="194" ht="14.250000" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="16" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="D194" s="18" t="str">
         <v/>
@@ -22949,16 +22886,16 @@
         <v>315.88477482495102</v>
       </c>
       <c r="I194" s="22">
-        <v>309.18161872286902</v>
+        <v>302.28071404941602</v>
       </c>
       <c r="J194" s="22">
-        <v>317.881869145591</v>
+        <v>314.47736053505798</v>
       </c>
       <c r="K194" s="22">
-        <v>329.31123845412299</v>
+        <v>334.034438699227</v>
       </c>
       <c r="L194" s="22">
-        <v>337.38269722194201</v>
+        <v>340.87375462045298</v>
       </c>
       <c r="M194" s="22">
         <v>359.54598381955401</v>
@@ -23000,46 +22937,46 @@
         <v>299.227236877748</v>
       </c>
       <c r="Z194" s="22">
-        <v>765.329073697534</v>
+        <v>749.95737219655905</v>
       </c>
       <c r="AA194" s="22">
-        <v>830.89497036798502</v>
+        <v>820.65001400788003</v>
       </c>
       <c r="AB194" s="22">
-        <v>813.74026352161195</v>
+        <v>815.92650496866304</v>
       </c>
       <c r="AC194" s="22">
-        <v>905.24354091089197</v>
+        <v>899.73921392777004</v>
       </c>
       <c r="AD194" s="22">
-        <v>978.79484654915598</v>
+        <v>961.78952194244403</v>
       </c>
       <c r="AE194" s="22">
-        <v>1113.48732602627</v>
+        <v>1104.30244071062</v>
       </c>
       <c r="AF194" s="22">
-        <v>1133.2962697953101</v>
+        <v>1180.28351494295</v>
       </c>
       <c r="AG194" s="22">
-        <v>1225.4962904921699</v>
+        <v>1213.7499788180501</v>
       </c>
       <c r="AH194" s="22">
-        <v>1316.2538555911301</v>
+        <v>1296.19118781163</v>
       </c>
       <c r="AI194" s="22">
-        <v>1507.67045609256</v>
-      </c>
-      <c r="AJ194" s="22" t="s">
-        <v>610</v>
+        <v>1467.5951826369701</v>
+      </c>
+      <c r="AJ194" s="22">
+        <v>1912.72569185728</v>
       </c>
     </row>
     <row r="195" ht="14.250000" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="16" t="s">
-        <v>611</v>
+        <v>592</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>612</v>
+        <v>593</v>
       </c>
       <c r="D195" s="18" t="str">
         <v/>
@@ -23137,83 +23074,83 @@
       <c r="AI195" s="20">
         <v>27.060778653844</v>
       </c>
-      <c r="AJ195" s="20" t="s">
-        <v>613</v>
+      <c r="AJ195" s="20">
+        <v>23.947931184008699</v>
       </c>
     </row>
     <row r="196" ht="14.250000" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="16" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="C196" s="17" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="D196" s="18" t="str">
         <v/>
       </c>
       <c r="E196" s="21" t="s">
+        <v>596</v>
+      </c>
+      <c r="F196" s="22" t="s">
+        <v>597</v>
+      </c>
+      <c r="G196" s="22" t="s">
+        <v>598</v>
+      </c>
+      <c r="H196" s="22" t="s">
+        <v>599</v>
+      </c>
+      <c r="I196" s="22" t="s">
+        <v>600</v>
+      </c>
+      <c r="J196" s="22" t="s">
+        <v>601</v>
+      </c>
+      <c r="K196" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="L196" s="22" t="s">
+        <v>603</v>
+      </c>
+      <c r="M196" s="22" t="s">
+        <v>604</v>
+      </c>
+      <c r="N196" s="22" t="s">
+        <v>605</v>
+      </c>
+      <c r="O196" s="22" t="s">
+        <v>606</v>
+      </c>
+      <c r="P196" s="22" t="s">
+        <v>607</v>
+      </c>
+      <c r="Q196" s="22" t="s">
+        <v>608</v>
+      </c>
+      <c r="R196" s="22" t="s">
+        <v>609</v>
+      </c>
+      <c r="S196" s="22" t="s">
+        <v>610</v>
+      </c>
+      <c r="T196" s="22" t="s">
+        <v>611</v>
+      </c>
+      <c r="U196" s="22" t="s">
+        <v>612</v>
+      </c>
+      <c r="V196" s="22" t="s">
+        <v>613</v>
+      </c>
+      <c r="W196" s="22" t="s">
+        <v>614</v>
+      </c>
+      <c r="X196" s="22" t="s">
+        <v>615</v>
+      </c>
+      <c r="Y196" s="22" t="s">
         <v>616</v>
-      </c>
-      <c r="F196" s="22" t="s">
-        <v>617</v>
-      </c>
-      <c r="G196" s="22" t="s">
-        <v>618</v>
-      </c>
-      <c r="H196" s="22" t="s">
-        <v>619</v>
-      </c>
-      <c r="I196" s="22" t="s">
-        <v>620</v>
-      </c>
-      <c r="J196" s="22" t="s">
-        <v>621</v>
-      </c>
-      <c r="K196" s="22" t="s">
-        <v>622</v>
-      </c>
-      <c r="L196" s="22" t="s">
-        <v>623</v>
-      </c>
-      <c r="M196" s="22" t="s">
-        <v>624</v>
-      </c>
-      <c r="N196" s="22" t="s">
-        <v>625</v>
-      </c>
-      <c r="O196" s="22" t="s">
-        <v>626</v>
-      </c>
-      <c r="P196" s="22" t="s">
-        <v>627</v>
-      </c>
-      <c r="Q196" s="22" t="s">
-        <v>628</v>
-      </c>
-      <c r="R196" s="22" t="s">
-        <v>629</v>
-      </c>
-      <c r="S196" s="22" t="s">
-        <v>630</v>
-      </c>
-      <c r="T196" s="22" t="s">
-        <v>631</v>
-      </c>
-      <c r="U196" s="22" t="s">
-        <v>632</v>
-      </c>
-      <c r="V196" s="22" t="s">
-        <v>633</v>
-      </c>
-      <c r="W196" s="22" t="s">
-        <v>634</v>
-      </c>
-      <c r="X196" s="22" t="s">
-        <v>635</v>
-      </c>
-      <c r="Y196" s="22" t="s">
-        <v>636</v>
       </c>
       <c r="Z196" s="22">
         <v>6.1037238670992897</v>
@@ -23245,17 +23182,17 @@
       <c r="AI196" s="22">
         <v>122.189395126836</v>
       </c>
-      <c r="AJ196" s="22" t="s">
-        <v>637</v>
+      <c r="AJ196" s="22">
+        <v>141.00956774923</v>
       </c>
     </row>
     <row r="197" ht="24.000000" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="16" t="s">
-        <v>638</v>
+        <v>617</v>
       </c>
       <c r="C197" s="17" t="s">
-        <v>639</v>
+        <v>618</v>
       </c>
       <c r="D197" s="18" t="str">
         <v/>
@@ -23360,10 +23297,10 @@
     <row r="198" ht="24.000000" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="16" t="s">
-        <v>640</v>
+        <v>619</v>
       </c>
       <c r="C198" s="17" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
       <c r="D198" s="18" t="str">
         <v/>
@@ -23468,10 +23405,10 @@
     <row r="199" ht="24.000000" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="23" t="s">
-        <v>642</v>
+        <v>621</v>
       </c>
       <c r="C199" s="24" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="D199" s="25" t="str">
         <v/>
